--- a/Kependudukan.xlsx
+++ b/Kependudukan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LATSAR\Aktualisasi\Streamlit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LATSAR\Aktualisasi\Streamlit_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37407C5-FEDA-4DAB-90E9-50AF1A4C65EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B119CD86-A8BD-4DA3-92B5-D1F18C31DE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{098B856F-29F1-4986-BB1D-3A833D71C608}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -158,6 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,8 +477,8 @@
   <dimension ref="A1:CS12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CA7" sqref="CA7"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CD2" sqref="CD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,6 +1104,9 @@
       <c r="CC2" s="4">
         <v>111.42712036566785</v>
       </c>
+      <c r="CD2" s="5">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1348,6 +1352,9 @@
       <c r="CC3" s="4">
         <v>110.83610392808767</v>
       </c>
+      <c r="CD3" s="5">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -1593,6 +1600,9 @@
       <c r="CC4" s="4">
         <v>110.73945765141559</v>
       </c>
+      <c r="CD4">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1837,6 +1847,9 @@
       </c>
       <c r="CC5" s="4">
         <v>110.64471243042671</v>
+      </c>
+      <c r="CD5">
+        <v>1.59</v>
       </c>
     </row>
     <row r="6" spans="1:97" x14ac:dyDescent="0.3">
